--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\challenge gold binar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e75dd856e5db1ab/Dokumen/23001026_15_ATD_Gold/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159706C8-5491-454A-859F-6891534093C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{159706C8-5491-454A-859F-6891534093C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83BC0ED2-3921-41FE-8454-1881CE1D4204}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ED2BC40A-E464-446A-97B6-D450C02BF8BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED2BC40A-E464-446A-97B6-D450C02BF8BE}"/>
   </bookViews>
   <sheets>
     <sheet name="website" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="198">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="240">
   <si>
     <t>Function/Test Scenario Name</t>
   </si>
@@ -729,6 +726,135 @@
   </si>
   <si>
     <t>User login the website.</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>TC_LOG_001</t>
+  </si>
+  <si>
+    <t>TC_LOG_002</t>
+  </si>
+  <si>
+    <t>TC_LOG_003</t>
+  </si>
+  <si>
+    <t>TC_LOG_004</t>
+  </si>
+  <si>
+    <t>TC_LOG_005</t>
+  </si>
+  <si>
+    <t>TC_LOG_006</t>
+  </si>
+  <si>
+    <t>TC_LOG_007</t>
+  </si>
+  <si>
+    <t>TC_LOG_008</t>
+  </si>
+  <si>
+    <t>TC_LOG_009</t>
+  </si>
+  <si>
+    <t>TC_LOG_010</t>
+  </si>
+  <si>
+    <t>TC_LOG_011</t>
+  </si>
+  <si>
+    <t>TC_LOG_012</t>
+  </si>
+  <si>
+    <t>TC_LOG_013</t>
+  </si>
+  <si>
+    <t>TC_LOG_014</t>
+  </si>
+  <si>
+    <t>TC_SEL_001</t>
+  </si>
+  <si>
+    <t>TC_SEL_002</t>
+  </si>
+  <si>
+    <t>TC_SEL_003</t>
+  </si>
+  <si>
+    <t>TC_SEL_004</t>
+  </si>
+  <si>
+    <t>TC_SEL_005</t>
+  </si>
+  <si>
+    <t>TC_SEL_006</t>
+  </si>
+  <si>
+    <t>TC_SEL_007</t>
+  </si>
+  <si>
+    <t>TC_SEL_008</t>
+  </si>
+  <si>
+    <t>TC_SEL_009</t>
+  </si>
+  <si>
+    <t>TC_SEL_010</t>
+  </si>
+  <si>
+    <t>TC_SEL_011</t>
+  </si>
+  <si>
+    <t>TC_SEL_012</t>
+  </si>
+  <si>
+    <t>TC_SEL_013</t>
+  </si>
+  <si>
+    <t>TC_SEL_014</t>
+  </si>
+  <si>
+    <t>TC_SEL_015</t>
+  </si>
+  <si>
+    <t>TC_SEL_016</t>
+  </si>
+  <si>
+    <t>TC_SEL_017</t>
+  </si>
+  <si>
+    <t>TC_SEL_018</t>
+  </si>
+  <si>
+    <t>TC_SEL_019</t>
+  </si>
+  <si>
+    <t>TC_BUY_001</t>
+  </si>
+  <si>
+    <t>TC_BUY_002</t>
+  </si>
+  <si>
+    <t>TC_BUY_003</t>
+  </si>
+  <si>
+    <t>TC_BUY_004</t>
+  </si>
+  <si>
+    <t>TC_BUY_005</t>
+  </si>
+  <si>
+    <t>TC_BUY_006</t>
+  </si>
+  <si>
+    <t>TC_BUY_007</t>
+  </si>
+  <si>
+    <t>User can logout the app</t>
+  </si>
+  <si>
+    <t>user will exit the application</t>
   </si>
 </sst>
 </file>
@@ -849,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -875,16 +1001,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,6 +1017,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -905,11 +1031,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,12 +1359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC7C48D-03E4-4973-A0D8-A5DF37AED709}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection sqref="A1:I196"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
@@ -1244,7 +1377,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1257,60 +1390,60 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
+      <c r="I3" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1323,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1340,32 +1473,32 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>2</v>
+      <c r="A6" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -1378,10 +1511,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -1397,32 +1530,32 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>3</v>
+      <c r="A9" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1435,10 +1568,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="I10" s="4"/>
     </row>
@@ -1452,38 +1585,38 @@
         <v>3</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="H11" s="16"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>4</v>
+      <c r="A12" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,10 +1629,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -1511,36 +1644,36 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>5</v>
+      <c r="A15" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
@@ -1553,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -1572,32 +1705,32 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>6</v>
+      <c r="A18" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1610,10 +1743,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -1627,38 +1760,38 @@
         <v>3</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="H20" s="21"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>7</v>
+      <c r="A21" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1667,14 +1800,14 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="18">
-        <v>2</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>79</v>
+      <c r="F22" s="21">
+        <v>2</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -1684,38 +1817,38 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>8</v>
+      <c r="A24" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1728,10 +1861,10 @@
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="I25" s="4"/>
     </row>
@@ -1745,9 +1878,9 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1760,38 +1893,38 @@
         <v>4</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -1804,10 +1937,10 @@
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -1821,9 +1954,9 @@
         <v>3</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="H30" s="21"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1836,9 +1969,9 @@
         <v>4</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H31" s="21"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
@@ -1851,9 +1984,9 @@
         <v>5</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="H32" s="21"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1866,9 +1999,9 @@
         <v>6</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="H33" s="21"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1881,38 +2014,38 @@
         <v>7</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="H34" s="21"/>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>9</v>
+      <c r="A35" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F35" s="3">
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1925,10 +2058,10 @@
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="I36" s="4"/>
     </row>
@@ -1942,9 +2075,9 @@
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="H37" s="21"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1957,9 +2090,9 @@
         <v>4</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H38" s="21"/>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
@@ -1972,9 +2105,9 @@
         <v>5</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="H39" s="21"/>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1987,9 +2120,9 @@
         <v>6</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="H40" s="21"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2002,38 +2135,38 @@
         <v>7</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="H41" s="21"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>9</v>
+      <c r="A42" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2046,10 +2179,10 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="18" t="s">
         <v>56</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="I43" s="4"/>
     </row>
@@ -2063,9 +2196,9 @@
         <v>3</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="H44" s="21"/>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2078,9 +2211,9 @@
         <v>4</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H45" s="21"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
@@ -2093,9 +2226,9 @@
         <v>5</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="H46" s="21"/>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2108,9 +2241,9 @@
         <v>6</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="H47" s="21"/>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2123,38 +2256,38 @@
         <v>7</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="H48" s="21"/>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>10</v>
+      <c r="A49" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F49" s="3">
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
@@ -2167,10 +2300,10 @@
         <v>2</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="I50" s="4"/>
     </row>
@@ -2184,9 +2317,9 @@
         <v>3</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="H51" s="21"/>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2199,38 +2332,38 @@
         <v>4</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="H52" s="21"/>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>11</v>
+      <c r="A53" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F53" s="3">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2243,10 +2376,10 @@
         <v>2</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="I54" s="4"/>
     </row>
@@ -2260,9 +2393,9 @@
         <v>3</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="H55" s="21"/>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2275,9 +2408,9 @@
         <v>4</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H56" s="21"/>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
@@ -2290,9 +2423,9 @@
         <v>5</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="H57" s="21"/>
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
@@ -2305,9 +2438,9 @@
         <v>6</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="H58" s="21"/>
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2320,38 +2453,38 @@
         <v>7</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H59" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="H59" s="21"/>
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>12</v>
+      <c r="A60" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F60" s="3">
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
@@ -2364,10 +2497,10 @@
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="I61" s="4"/>
     </row>
@@ -2381,14 +2514,14 @@
         <v>3</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="H62" s="21"/>
       <c r="I62" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -2401,60 +2534,60 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="C66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="67" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>1</v>
+      <c r="A67" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2467,10 +2600,10 @@
         <v>2</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
@@ -2484,32 +2617,32 @@
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>2</v>
+      <c r="A70" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="F70" s="3">
         <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2522,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
@@ -2537,9 +2670,9 @@
         <v>3</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H72" s="14"/>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -2552,38 +2685,38 @@
         <v>4</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H73" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="H73" s="15"/>
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>3</v>
+      <c r="A74" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="F74" s="3">
         <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -2596,10 +2729,10 @@
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
@@ -2611,9 +2744,9 @@
         <v>3</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H76" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="H76" s="14"/>
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -2626,9 +2759,9 @@
         <v>4</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H77" s="14"/>
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -2641,9 +2774,9 @@
         <v>5</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H78" s="14"/>
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -2656,9 +2789,9 @@
         <v>6</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H79" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H79" s="14"/>
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -2671,38 +2804,38 @@
         <v>7</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H80" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="H80" s="15"/>
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>4</v>
+      <c r="A81" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F81" s="3">
         <v>1</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -2715,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
@@ -2730,9 +2863,9 @@
         <v>3</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H83" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="H83" s="14"/>
       <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -2745,9 +2878,9 @@
         <v>4</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H84" s="14"/>
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -2760,9 +2893,9 @@
         <v>5</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H85" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H85" s="14"/>
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -2775,9 +2908,9 @@
         <v>6</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H86" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H86" s="14"/>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -2790,38 +2923,38 @@
         <v>7</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H87" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="H87" s="15"/>
       <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>5</v>
+      <c r="A88" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F88" s="3">
         <v>1</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -2834,10 +2967,10 @@
         <v>2</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H89" s="16"/>
-      <c r="I89" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
@@ -2849,9 +2982,9 @@
         <v>3</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H90" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="H90" s="14"/>
       <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -2864,9 +2997,9 @@
         <v>4</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H91" s="14"/>
       <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -2879,9 +3012,9 @@
         <v>5</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H92" s="14"/>
       <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -2894,9 +3027,9 @@
         <v>6</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H93" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H93" s="14"/>
       <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -2909,38 +3042,38 @@
         <v>7</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H94" s="17"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>6</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>15</v>
+      <c r="I95" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -2953,10 +3086,10 @@
         <v>2</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H96" s="16"/>
-      <c r="I96" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
     </row>
     <row r="97" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
@@ -2968,9 +3101,9 @@
         <v>3</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H97" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="H97" s="14"/>
       <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -2983,9 +3116,9 @@
         <v>4</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H98" s="14"/>
       <c r="I98" s="4"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -2998,9 +3131,9 @@
         <v>5</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H99" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H99" s="14"/>
       <c r="I99" s="4"/>
     </row>
     <row r="100" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3013,9 +3146,9 @@
         <v>6</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H100" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H100" s="14"/>
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3028,38 +3161,38 @@
         <v>7</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H101" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="H101" s="15"/>
       <c r="I101" s="4"/>
     </row>
     <row r="102" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>7</v>
+      <c r="A102" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3072,10 +3205,10 @@
         <v>2</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="H103" s="18"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
@@ -3087,9 +3220,9 @@
         <v>3</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H104" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="H104" s="18"/>
       <c r="I104" s="4"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -3102,9 +3235,9 @@
         <v>4</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H105" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="H105" s="18"/>
       <c r="I105" s="4"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3117,9 +3250,9 @@
         <v>5</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H106" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="H106" s="18"/>
       <c r="I106" s="4"/>
     </row>
     <row r="107" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3132,9 +3265,9 @@
         <v>6</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H107" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="H107" s="18"/>
       <c r="I107" s="4"/>
     </row>
     <row r="108" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3147,9 +3280,9 @@
         <v>7</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H108" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="H108" s="18"/>
       <c r="I108" s="4"/>
     </row>
     <row r="109" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3162,9 +3295,9 @@
         <v>8</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H109" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="H109" s="18"/>
       <c r="I109" s="4"/>
     </row>
     <row r="110" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3177,9 +3310,9 @@
         <v>9</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H110" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="H110" s="18"/>
       <c r="I110" s="4"/>
     </row>
     <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3192,38 +3325,38 @@
         <v>10</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H111" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="H111" s="22"/>
       <c r="I111" s="4"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <v>8</v>
+      <c r="A112" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -3236,10 +3369,10 @@
         <v>2</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="H113" s="18"/>
+      <c r="I113" s="16"/>
     </row>
     <row r="114" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
@@ -3251,9 +3384,9 @@
         <v>3</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H114" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="H114" s="18"/>
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3266,38 +3399,38 @@
         <v>4</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H115" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="H115" s="18"/>
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D116" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -3310,10 +3443,10 @@
         <v>2</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="H117" s="18"/>
+      <c r="I117" s="16"/>
     </row>
     <row r="118" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
@@ -3325,38 +3458,38 @@
         <v>3</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H118" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="H118" s="18"/>
       <c r="I118" s="4"/>
     </row>
     <row r="119" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
-        <v>10</v>
+      <c r="A119" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="F119" s="3">
         <v>1</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3369,10 +3502,10 @@
         <v>2</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H120" s="12"/>
-      <c r="I120" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="H120" s="18"/>
+      <c r="I120" s="16"/>
     </row>
     <row r="121" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
@@ -3384,38 +3517,38 @@
         <v>3</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H121" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="H121" s="18"/>
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>11</v>
+      <c r="A122" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D122" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I122" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3428,10 +3561,10 @@
         <v>2</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H123" s="12"/>
-      <c r="I123" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="H123" s="18"/>
+      <c r="I123" s="16"/>
     </row>
     <row r="124" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
@@ -3443,9 +3576,9 @@
         <v>3</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H124" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="H124" s="18"/>
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3458,38 +3591,38 @@
         <v>4</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H125" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="H125" s="18"/>
       <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
-        <v>12</v>
+      <c r="A126" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I126" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3502,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H127" s="12"/>
-      <c r="I127" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="H127" s="18"/>
+      <c r="I127" s="16"/>
     </row>
     <row r="128" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
@@ -3517,9 +3650,9 @@
         <v>3</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H128" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="H128" s="18"/>
       <c r="I128" s="4"/>
     </row>
     <row r="129" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3532,38 +3665,38 @@
         <v>4</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H129" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="H129" s="18"/>
       <c r="I129" s="4"/>
     </row>
     <row r="130" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <v>13</v>
+      <c r="A130" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -3576,10 +3709,10 @@
         <v>2</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H131" s="12"/>
-      <c r="I131" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="H131" s="18"/>
+      <c r="I131" s="16"/>
     </row>
     <row r="132" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
@@ -3591,9 +3724,9 @@
         <v>3</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H132" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="H132" s="18"/>
       <c r="I132" s="4"/>
     </row>
     <row r="133" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -3606,36 +3739,36 @@
         <v>4</v>
       </c>
       <c r="G133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H133" s="18"/>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="1:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H133" s="12"/>
-      <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:9" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="D134" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H134" s="10"/>
+      <c r="I134" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F134" s="3">
-        <v>1</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H134" s="10"/>
-      <c r="I134" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -3648,12 +3781,12 @@
         <v>2</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I135" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I135" s="16"/>
     </row>
     <row r="136" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
@@ -3665,9 +3798,9 @@
         <v>3</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H136" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="H136" s="18"/>
       <c r="I136" s="4"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -3680,9 +3813,9 @@
         <v>4</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H137" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="H137" s="18"/>
       <c r="I137" s="4"/>
     </row>
     <row r="138" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3695,38 +3828,38 @@
         <v>5</v>
       </c>
       <c r="G138" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H138" s="18"/>
+      <c r="I138" s="4"/>
+    </row>
+    <row r="139" spans="1:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H138" s="12"/>
-      <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="1:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
-        <v>15</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="E139" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="F139" s="3">
         <v>1</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H139" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I139" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
@@ -3739,10 +3872,10 @@
         <v>2</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H140" s="12"/>
-      <c r="I140" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="H140" s="18"/>
+      <c r="I140" s="16"/>
     </row>
     <row r="141" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
@@ -3754,9 +3887,9 @@
         <v>3</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H141" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="H141" s="18"/>
       <c r="I141" s="4"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -3769,9 +3902,9 @@
         <v>4</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H142" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="H142" s="18"/>
       <c r="I142" s="4"/>
     </row>
     <row r="143" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3784,38 +3917,38 @@
         <v>5</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H143" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="H143" s="18"/>
       <c r="I143" s="4"/>
     </row>
     <row r="144" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>15</v>
+      <c r="A144" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="F144" s="3">
         <v>1</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I144" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I144" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3828,10 +3961,10 @@
         <v>2</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H145" s="12"/>
-      <c r="I145" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="H145" s="18"/>
+      <c r="I145" s="16"/>
     </row>
     <row r="146" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
@@ -3843,9 +3976,9 @@
         <v>3</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H146" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="H146" s="18"/>
       <c r="I146" s="4"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -3856,7 +3989,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="12"/>
+      <c r="H147" s="18"/>
       <c r="I147" s="4"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -3867,36 +4000,36 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="12"/>
+      <c r="H148" s="18"/>
       <c r="I148" s="4"/>
     </row>
     <row r="149" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
-        <v>16</v>
+      <c r="A149" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="F149" s="3">
         <v>1</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H149" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H149" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I149" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3909,10 +4042,10 @@
         <v>2</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H150" s="12"/>
-      <c r="I150" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="H150" s="18"/>
+      <c r="I150" s="16"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
@@ -3924,9 +4057,9 @@
         <v>3</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H151" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="H151" s="18"/>
       <c r="I151" s="4"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -3937,7 +4070,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="12"/>
+      <c r="H152" s="18"/>
       <c r="I152" s="4"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -3948,36 +4081,36 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="12"/>
+      <c r="H153" s="18"/>
       <c r="I153" s="4"/>
     </row>
     <row r="154" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
-        <v>16</v>
+      <c r="A154" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I154" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -3990,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H155" s="12"/>
-      <c r="I155" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="H155" s="18"/>
+      <c r="I155" s="16"/>
     </row>
     <row r="156" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
@@ -4005,9 +4138,9 @@
         <v>3</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H156" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="H156" s="18"/>
       <c r="I156" s="4"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -4020,9 +4153,9 @@
         <v>4</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H157" s="12"/>
+        <v>189</v>
+      </c>
+      <c r="H157" s="18"/>
       <c r="I157" s="4"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -4033,36 +4166,36 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="12"/>
+      <c r="H158" s="18"/>
       <c r="I158" s="4"/>
     </row>
     <row r="159" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
-        <v>17</v>
+      <c r="A159" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F159" s="3">
         <v>1</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="I159" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I159" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4075,10 +4208,10 @@
         <v>2</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H160" s="12"/>
-      <c r="I160" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="H160" s="18"/>
+      <c r="I160" s="16"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
@@ -4090,9 +4223,9 @@
         <v>3</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H161" s="12"/>
+        <v>190</v>
+      </c>
+      <c r="H161" s="18"/>
       <c r="I161" s="4"/>
     </row>
     <row r="162" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4105,9 +4238,9 @@
         <v>4</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H162" s="12"/>
+        <v>191</v>
+      </c>
+      <c r="H162" s="18"/>
       <c r="I162" s="4"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -4118,34 +4251,34 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="12"/>
+      <c r="H163" s="18"/>
       <c r="I163" s="4"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="22"/>
-      <c r="I164" s="21"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="11"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="21"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="11"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
@@ -4158,60 +4291,60 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="C169" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="G169" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="I169" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I169" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>1</v>
+      <c r="A170" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D170" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E170" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="F170" s="3">
         <v>1</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I170" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H170" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I170" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4224,10 +4357,10 @@
         <v>2</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
@@ -4241,32 +4374,32 @@
       <c r="I172" s="4"/>
     </row>
     <row r="173" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
-        <v>2</v>
+      <c r="A173" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D173" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E173" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="F173" s="3">
         <v>1</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I173" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I173" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4279,10 +4412,10 @@
         <v>2</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H174" s="16"/>
-      <c r="I174" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="H174" s="14"/>
+      <c r="I174" s="16"/>
     </row>
     <row r="175" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
@@ -4294,9 +4427,9 @@
         <v>3</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H175" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="H175" s="14"/>
       <c r="I175" s="8"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -4309,38 +4442,38 @@
         <v>4</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H176" s="17"/>
+        <v>159</v>
+      </c>
+      <c r="H176" s="15"/>
       <c r="I176" s="4"/>
     </row>
     <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
-        <v>3</v>
+      <c r="A177" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E177" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="F177" s="3">
         <v>1</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I177" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4353,10 +4486,10 @@
         <v>2</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H178" s="16"/>
-      <c r="I178" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="H178" s="14"/>
+      <c r="I178" s="16"/>
     </row>
     <row r="179" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
@@ -4368,9 +4501,9 @@
         <v>3</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H179" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="H179" s="14"/>
       <c r="I179" s="8"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -4383,38 +4516,38 @@
         <v>4</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H180" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="H180" s="15"/>
       <c r="I180" s="4"/>
     </row>
     <row r="181" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
-        <v>4</v>
+      <c r="A181" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D181" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E181" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="F181" s="3">
         <v>1</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I181" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I181" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4427,10 +4560,10 @@
         <v>2</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H182" s="16"/>
-      <c r="I182" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="H182" s="14"/>
+      <c r="I182" s="16"/>
     </row>
     <row r="183" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
@@ -4442,9 +4575,9 @@
         <v>3</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H183" s="16"/>
+        <v>169</v>
+      </c>
+      <c r="H183" s="14"/>
       <c r="I183" s="8"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -4455,36 +4588,36 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="17"/>
+      <c r="H184" s="15"/>
       <c r="I184" s="4"/>
     </row>
     <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
-        <v>5</v>
+      <c r="A185" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D185" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="F185" s="3">
         <v>1</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I185" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H185" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I185" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
@@ -4497,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H186" s="16"/>
-      <c r="I186" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="H186" s="14"/>
+      <c r="I186" s="16"/>
     </row>
     <row r="187" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
@@ -4512,9 +4645,9 @@
         <v>3</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H187" s="16"/>
+        <v>169</v>
+      </c>
+      <c r="H187" s="14"/>
       <c r="I187" s="8"/>
     </row>
     <row r="188" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4527,38 +4660,38 @@
         <v>4</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H188" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="H188" s="15"/>
       <c r="I188" s="4"/>
     </row>
     <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
-        <v>6</v>
+      <c r="A189" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F189" s="3">
         <v>1</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H189" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I189" s="11" t="s">
-        <v>15</v>
+        <v>196</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I189" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -4571,10 +4704,10 @@
         <v>2</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H190" s="16"/>
-      <c r="I190" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="H190" s="14"/>
+      <c r="I190" s="16"/>
     </row>
     <row r="191" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
@@ -4586,9 +4719,9 @@
         <v>3</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H191" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="H191" s="14"/>
       <c r="I191" s="8"/>
     </row>
     <row r="192" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
@@ -4601,38 +4734,38 @@
         <v>4</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H192" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="H192" s="15"/>
       <c r="I192" s="4"/>
     </row>
     <row r="193" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
-        <v>7</v>
+      <c r="A193" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D193" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E193" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E193" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="F193" s="3">
         <v>1</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H193" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="I193" s="11" t="s">
-        <v>15</v>
+      <c r="H193" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I193" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -4645,10 +4778,10 @@
         <v>2</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H194" s="16"/>
-      <c r="I194" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="H194" s="14"/>
+      <c r="I194" s="16"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
@@ -4658,7 +4791,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="3"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="16"/>
+      <c r="H195" s="14"/>
       <c r="I195" s="8"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -4669,62 +4802,17 @@
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="17"/>
+      <c r="H196" s="15"/>
       <c r="I196" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="H193:H196"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="H181:H184"/>
-    <mergeCell ref="I181:I182"/>
-    <mergeCell ref="H185:H188"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="H189:H192"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="H173:H176"/>
-    <mergeCell ref="H177:H180"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="H154:H158"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="H159:H163"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="H144:H148"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="A168:I168"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="H149:H153"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="H43:H48"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="H74:H80"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="H81:H87"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="H88:H94"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="H95:H101"/>
-    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="H135:H138"/>
+    <mergeCell ref="H139:H143"/>
     <mergeCell ref="I122:I123"/>
     <mergeCell ref="H122:H125"/>
     <mergeCell ref="H126:H129"/>
@@ -4737,12 +4825,57 @@
     <mergeCell ref="H116:H118"/>
     <mergeCell ref="H119:H121"/>
     <mergeCell ref="I119:I120"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="H135:H138"/>
-    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="H81:H87"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="H88:H94"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="H95:H101"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="H74:H80"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H144:H148"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="A168:I168"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="H149:H153"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="H173:H176"/>
+    <mergeCell ref="H177:H180"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="H154:H158"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="H159:H163"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="H193:H196"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="H181:H184"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="H185:H188"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="H189:H192"/>
+    <mergeCell ref="I189:I190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4752,12 +4885,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DF49CF-1E21-4AD4-8DE8-ABB0F0DC0676}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
@@ -4770,7 +4904,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4781,65 +4915,65 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="I3" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4849,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -4865,33 +4999,33 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>2</v>
+    <row r="6" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
@@ -4904,10 +5038,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -4922,36 +5056,36 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>3</v>
+    <row r="9" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4961,14 +5095,14 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4978,41 +5112,41 @@
         <v>3</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="H11" s="16"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>4</v>
+    <row r="12" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5022,10 +5156,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -5037,36 +5171,36 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>5</v>
+    <row r="15" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
@@ -5079,10 +5213,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -5097,36 +5231,36 @@
       <c r="H17" s="6"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>6</v>
+    <row r="18" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5136,14 +5270,14 @@
         <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5153,38 +5287,38 @@
         <v>3</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="H20" s="21"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>7</v>
+    <row r="21" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -5193,14 +5327,14 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="18">
-        <v>2</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>79</v>
+      <c r="F22" s="24">
+        <v>2</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="I22" s="4"/>
     </row>
@@ -5210,41 +5344,41 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>8</v>
+    <row r="24" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5254,14 +5388,14 @@
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5271,12 +5405,12 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5286,41 +5420,41 @@
         <v>4</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="132.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5330,14 +5464,14 @@
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5347,12 +5481,12 @@
         <v>3</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="H30" s="21"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5362,12 +5496,12 @@
         <v>4</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H31" s="21"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5377,12 +5511,12 @@
         <v>5</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="H32" s="21"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5392,12 +5526,12 @@
         <v>6</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="H33" s="21"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5407,41 +5541,41 @@
         <v>7</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="H34" s="21"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>9</v>
+    <row r="35" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F35" s="3">
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -5451,14 +5585,14 @@
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>54</v>
-      </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5468,12 +5602,12 @@
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="H37" s="21"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -5483,12 +5617,12 @@
         <v>4</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H38" s="21"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -5498,12 +5632,12 @@
         <v>5</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="H39" s="21"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5513,12 +5647,12 @@
         <v>6</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="H40" s="21"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -5528,41 +5662,41 @@
         <v>7</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="H41" s="21"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>9</v>
+    <row r="42" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -5572,14 +5706,14 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="18" t="s">
         <v>56</v>
       </c>
+      <c r="H43" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -5589,12 +5723,12 @@
         <v>3</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="H44" s="21"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -5604,12 +5738,12 @@
         <v>4</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H45" s="21"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -5619,12 +5753,12 @@
         <v>5</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="H46" s="21"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -5634,12 +5768,12 @@
         <v>6</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="H47" s="21"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -5649,41 +5783,41 @@
         <v>7</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="H48" s="21"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>10</v>
+    <row r="49" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F49" s="3">
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5693,14 +5827,14 @@
         <v>2</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5710,12 +5844,12 @@
         <v>3</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="H51" s="21"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -5725,41 +5859,41 @@
         <v>4</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="H52" s="21"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" ht="132.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>11</v>
+    <row r="53" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F53" s="3">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -5769,14 +5903,14 @@
         <v>2</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -5786,12 +5920,12 @@
         <v>3</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="H55" s="21"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -5801,12 +5935,12 @@
         <v>4</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H56" s="21"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -5816,12 +5950,12 @@
         <v>5</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H57" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="H57" s="21"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -5831,12 +5965,12 @@
         <v>6</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="H58" s="21"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5846,41 +5980,41 @@
         <v>7</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H59" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="H59" s="21"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+    <row r="60" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="105.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5890,14 +6024,14 @@
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>239</v>
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -5907,14 +6041,14 @@
         <v>3</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="H62" s="21"/>
       <c r="I62" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -5925,65 +6059,65 @@
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="C66" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>1</v>
+    </row>
+    <row r="67" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5993,10 +6127,10 @@
         <v>2</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
@@ -6009,36 +6143,36 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>2</v>
+    <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="F70" s="3">
         <v>1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6048,12 +6182,12 @@
         <v>2</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6063,12 +6197,12 @@
         <v>3</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H72" s="14"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6078,41 +6212,41 @@
         <v>4</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H73" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="H73" s="15"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>3</v>
+    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="F74" s="3">
         <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6122,12 +6256,12 @@
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="1:9" ht="93" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6137,12 +6271,12 @@
         <v>3</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H76" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="H76" s="14"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6152,12 +6286,12 @@
         <v>4</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H77" s="14"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6167,12 +6301,12 @@
         <v>5</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H78" s="14"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6182,12 +6316,12 @@
         <v>6</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H79" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H79" s="14"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6197,41 +6331,41 @@
         <v>7</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H80" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="H80" s="15"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>4</v>
+    <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F81" s="3">
         <v>1</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6241,12 +6375,12 @@
         <v>2</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6256,12 +6390,12 @@
         <v>3</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H83" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="H83" s="14"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6271,12 +6405,12 @@
         <v>4</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H84" s="14"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6286,12 +6420,12 @@
         <v>5</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H85" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H85" s="14"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6301,12 +6435,12 @@
         <v>6</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H86" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H86" s="14"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6316,41 +6450,41 @@
         <v>7</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H87" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="H87" s="15"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>5</v>
+    <row r="88" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F88" s="3">
         <v>1</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6360,12 +6494,12 @@
         <v>2</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H89" s="16"/>
-      <c r="I89" s="11"/>
-    </row>
-    <row r="90" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="16"/>
+    </row>
+    <row r="90" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6375,12 +6509,12 @@
         <v>3</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H90" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="H90" s="14"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6390,12 +6524,12 @@
         <v>4</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H91" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H91" s="14"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6405,12 +6539,12 @@
         <v>5</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H92" s="14"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6420,12 +6554,12 @@
         <v>6</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H93" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H93" s="14"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6435,41 +6569,41 @@
         <v>7</v>
       </c>
       <c r="G94" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H94" s="17"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>6</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="I95" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6479,12 +6613,12 @@
         <v>2</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H96" s="16"/>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6494,12 +6628,12 @@
         <v>3</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H97" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="H97" s="14"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6509,12 +6643,12 @@
         <v>4</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="H98" s="14"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6524,12 +6658,12 @@
         <v>5</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H99" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="H99" s="14"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6539,12 +6673,12 @@
         <v>6</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H100" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="H100" s="14"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6554,41 +6688,41 @@
         <v>7</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H101" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="H101" s="15"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>7</v>
+    <row r="102" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="F102" s="3">
         <v>1</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6598,12 +6732,12 @@
         <v>2</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H103" s="18"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6613,12 +6747,12 @@
         <v>3</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H104" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="H104" s="18"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -6628,12 +6762,12 @@
         <v>4</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H105" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="H105" s="18"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -6643,12 +6777,12 @@
         <v>5</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H106" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="H106" s="18"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6658,12 +6792,12 @@
         <v>6</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H107" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="H107" s="18"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6673,12 +6807,12 @@
         <v>7</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H108" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="H108" s="18"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6688,12 +6822,12 @@
         <v>8</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H109" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="H109" s="18"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -6703,12 +6837,12 @@
         <v>9</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H110" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="H110" s="18"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6718,41 +6852,41 @@
         <v>10</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H111" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="H111" s="22"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <v>8</v>
+    <row r="112" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="106.2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6762,12 +6896,12 @@
         <v>2</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="11"/>
-    </row>
-    <row r="114" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="H113" s="18"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6777,12 +6911,12 @@
         <v>3</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H114" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="H114" s="18"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6792,41 +6926,41 @@
         <v>4</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H115" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="H115" s="18"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+    <row r="116" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D116" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="106.2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6836,12 +6970,12 @@
         <v>2</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="11"/>
-    </row>
-    <row r="118" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="H117" s="18"/>
+      <c r="I117" s="16"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6851,41 +6985,41 @@
         <v>3</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H118" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="H118" s="18"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
-        <v>10</v>
+    <row r="119" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D119" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="F119" s="3">
         <v>1</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6895,12 +7029,12 @@
         <v>2</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H120" s="12"/>
-      <c r="I120" s="11"/>
-    </row>
-    <row r="121" spans="1:9" ht="106.2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="H120" s="18"/>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6910,41 +7044,41 @@
         <v>3</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H121" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="H121" s="18"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>11</v>
+    <row r="122" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D122" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I122" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6954,12 +7088,12 @@
         <v>2</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H123" s="12"/>
-      <c r="I123" s="11"/>
-    </row>
-    <row r="124" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="H123" s="18"/>
+      <c r="I123" s="16"/>
+    </row>
+    <row r="124" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6969,12 +7103,12 @@
         <v>3</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H124" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="H124" s="18"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6984,41 +7118,41 @@
         <v>4</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H125" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="H125" s="18"/>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" ht="185.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+    <row r="126" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F126" s="3">
-        <v>1</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="H126" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I126" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -7028,12 +7162,12 @@
         <v>2</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H127" s="12"/>
-      <c r="I127" s="11"/>
-    </row>
-    <row r="128" spans="1:9" ht="93" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="H127" s="18"/>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="128" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -7043,12 +7177,12 @@
         <v>3</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H128" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="H128" s="18"/>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -7058,41 +7192,41 @@
         <v>4</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H129" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="H129" s="18"/>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" ht="132.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <v>13</v>
+    <row r="130" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="F130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="106.2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -7102,12 +7236,12 @@
         <v>2</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H131" s="12"/>
-      <c r="I131" s="11"/>
-    </row>
-    <row r="132" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="H131" s="18"/>
+      <c r="I131" s="16"/>
+    </row>
+    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -7117,12 +7251,12 @@
         <v>3</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H132" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="H132" s="18"/>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -7132,39 +7266,39 @@
         <v>4</v>
       </c>
       <c r="G133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H133" s="18"/>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H133" s="12"/>
-      <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="D134" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="10"/>
+      <c r="I134" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F134" s="3">
-        <v>1</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="10"/>
-      <c r="I134" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="106.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -7174,14 +7308,14 @@
         <v>2</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H135" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I135" s="11"/>
-    </row>
-    <row r="136" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I135" s="16"/>
+    </row>
+    <row r="136" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -7191,12 +7325,12 @@
         <v>3</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H136" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="H136" s="18"/>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -7206,12 +7340,12 @@
         <v>4</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H137" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="H137" s="18"/>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -7221,41 +7355,41 @@
         <v>5</v>
       </c>
       <c r="G138" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H138" s="18"/>
+      <c r="I138" s="4"/>
+    </row>
+    <row r="139" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H138" s="12"/>
-      <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
-        <v>15</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="E139" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="F139" s="3">
         <v>1</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="106.2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H139" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I139" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -7265,12 +7399,12 @@
         <v>2</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H140" s="12"/>
-      <c r="I140" s="11"/>
-    </row>
-    <row r="141" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="H140" s="18"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -7280,12 +7414,12 @@
         <v>3</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H141" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="H141" s="18"/>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -7295,12 +7429,12 @@
         <v>4</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H142" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="H142" s="18"/>
       <c r="I142" s="4"/>
     </row>
-    <row r="143" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -7310,41 +7444,41 @@
         <v>5</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H143" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="H143" s="18"/>
       <c r="I143" s="4"/>
     </row>
-    <row r="144" spans="1:9" ht="132.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>15</v>
+    <row r="144" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="F144" s="3">
         <v>1</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I144" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I144" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7354,12 +7488,12 @@
         <v>2</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H145" s="12"/>
-      <c r="I145" s="11"/>
-    </row>
-    <row r="146" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="H145" s="18"/>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7369,9 +7503,9 @@
         <v>3</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H146" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="H146" s="18"/>
       <c r="I146" s="4"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -7382,7 +7516,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="12"/>
+      <c r="H147" s="18"/>
       <c r="I147" s="4"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7393,39 +7527,39 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="12"/>
+      <c r="H148" s="18"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="1:9" ht="211.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
-        <v>16</v>
+    <row r="149" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="F149" s="3">
         <v>1</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H149" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I149" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -7435,12 +7569,12 @@
         <v>2</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H150" s="12"/>
-      <c r="I150" s="11"/>
-    </row>
-    <row r="151" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="H150" s="18"/>
+      <c r="I150" s="16"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -7450,9 +7584,9 @@
         <v>3</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H151" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="H151" s="18"/>
       <c r="I151" s="4"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7463,7 +7597,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="12"/>
+      <c r="H152" s="18"/>
       <c r="I152" s="4"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7474,39 +7608,39 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="12"/>
+      <c r="H153" s="18"/>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="1:9" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
-        <v>16</v>
+    <row r="154" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I154" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -7516,12 +7650,12 @@
         <v>2</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H155" s="12"/>
-      <c r="I155" s="11"/>
-    </row>
-    <row r="156" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="H155" s="18"/>
+      <c r="I155" s="16"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -7531,12 +7665,12 @@
         <v>3</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H156" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="H156" s="18"/>
       <c r="I156" s="4"/>
     </row>
-    <row r="157" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -7546,9 +7680,9 @@
         <v>4</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H157" s="12"/>
+        <v>189</v>
+      </c>
+      <c r="H157" s="18"/>
       <c r="I157" s="4"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -7559,39 +7693,39 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="12"/>
+      <c r="H158" s="18"/>
       <c r="I158" s="4"/>
     </row>
-    <row r="159" spans="1:9" ht="172.2" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
-        <v>17</v>
+    <row r="159" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F159" s="3">
         <v>1</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H159" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="I159" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I159" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -7601,12 +7735,12 @@
         <v>2</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H160" s="12"/>
-      <c r="I160" s="11"/>
-    </row>
-    <row r="161" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="H160" s="18"/>
+      <c r="I160" s="16"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7616,12 +7750,12 @@
         <v>3</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H161" s="12"/>
+        <v>190</v>
+      </c>
+      <c r="H161" s="18"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -7631,9 +7765,9 @@
         <v>4</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H162" s="12"/>
+        <v>191</v>
+      </c>
+      <c r="H162" s="18"/>
       <c r="I162" s="4"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -7644,34 +7778,34 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="12"/>
+      <c r="H163" s="18"/>
       <c r="I163" s="4"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="22"/>
-      <c r="I164" s="21"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="11"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="21"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="11"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
@@ -7682,65 +7816,65 @@
       <c r="H168" s="20"/>
       <c r="I168" s="20"/>
     </row>
-    <row r="169" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B169" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="C169" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="G169" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="I169" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I169" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>1</v>
+    </row>
+    <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D170" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E170" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="F170" s="3">
         <v>1</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I170" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H170" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I170" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -7750,10 +7884,10 @@
         <v>2</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
@@ -7766,36 +7900,36 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="1:9" ht="79.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
-        <v>2</v>
+    <row r="173" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D173" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E173" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="F173" s="3">
         <v>1</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I173" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I173" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -7805,12 +7939,12 @@
         <v>2</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H174" s="16"/>
-      <c r="I174" s="11"/>
-    </row>
-    <row r="175" spans="1:9" ht="93" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="H174" s="14"/>
+      <c r="I174" s="16"/>
+    </row>
+    <row r="175" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7820,12 +7954,12 @@
         <v>3</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H175" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="H175" s="14"/>
       <c r="I175" s="8"/>
     </row>
-    <row r="176" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7835,41 +7969,41 @@
         <v>4</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H176" s="17"/>
+        <v>159</v>
+      </c>
+      <c r="H176" s="15"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
-        <v>3</v>
+    <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E177" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="F177" s="3">
         <v>1</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I177" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7879,12 +8013,12 @@
         <v>2</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H178" s="16"/>
-      <c r="I178" s="11"/>
-    </row>
-    <row r="179" spans="1:9" ht="93" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="H178" s="14"/>
+      <c r="I178" s="16"/>
+    </row>
+    <row r="179" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7894,12 +8028,12 @@
         <v>3</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H179" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="H179" s="14"/>
       <c r="I179" s="8"/>
     </row>
-    <row r="180" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7909,41 +8043,41 @@
         <v>4</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H180" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="H180" s="15"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
-        <v>4</v>
+    <row r="181" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D181" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E181" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="F181" s="3">
         <v>1</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="I181" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I181" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7953,12 +8087,12 @@
         <v>2</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H182" s="16"/>
-      <c r="I182" s="11"/>
-    </row>
-    <row r="183" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="H182" s="14"/>
+      <c r="I182" s="16"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7968,9 +8102,9 @@
         <v>3</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H183" s="16"/>
+        <v>169</v>
+      </c>
+      <c r="H183" s="14"/>
       <c r="I183" s="8"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -7981,39 +8115,39 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="17"/>
+      <c r="H184" s="15"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
-        <v>5</v>
+    <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D185" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="F185" s="3">
         <v>1</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I185" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="132.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H185" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I185" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -8023,12 +8157,12 @@
         <v>2</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H186" s="16"/>
-      <c r="I186" s="11"/>
-    </row>
-    <row r="187" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="H186" s="14"/>
+      <c r="I186" s="16"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -8038,12 +8172,12 @@
         <v>3</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H187" s="16"/>
+        <v>169</v>
+      </c>
+      <c r="H187" s="14"/>
       <c r="I187" s="8"/>
     </row>
-    <row r="188" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -8053,41 +8187,41 @@
         <v>4</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H188" s="17"/>
+        <v>173</v>
+      </c>
+      <c r="H188" s="15"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
-        <v>6</v>
+    <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F189" s="3">
         <v>1</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I189" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H189" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I189" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -8097,12 +8231,12 @@
         <v>2</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H190" s="16"/>
-      <c r="I190" s="11"/>
-    </row>
-    <row r="191" spans="1:9" ht="93" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="H190" s="14"/>
+      <c r="I190" s="16"/>
+    </row>
+    <row r="191" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -8112,12 +8246,12 @@
         <v>3</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H191" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="H191" s="14"/>
       <c r="I191" s="8"/>
     </row>
-    <row r="192" spans="1:9" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8127,41 +8261,41 @@
         <v>4</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H192" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="H192" s="15"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
-        <v>7</v>
+    <row r="193" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D193" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E193" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E193" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="F193" s="3">
         <v>1</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I193" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H193" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I193" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -8171,10 +8305,10 @@
         <v>2</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H194" s="16"/>
-      <c r="I194" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="H194" s="14"/>
+      <c r="I194" s="16"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
@@ -8184,7 +8318,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="3"/>
       <c r="G195" s="4"/>
-      <c r="H195" s="16"/>
+      <c r="H195" s="14"/>
       <c r="I195" s="8"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -8195,42 +8329,25 @@
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
-      <c r="H196" s="17"/>
+      <c r="H196" s="15"/>
       <c r="I196" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="H193:H196"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="A168:I168"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="H173:H176"/>
-    <mergeCell ref="H177:H180"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="H135:H138"/>
-    <mergeCell ref="H139:H143"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="H144:H148"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="H88:H94"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="H95:H101"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="H102:H111"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="H74:H80"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="H81:H87"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="H122:H125"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H185:H188"/>
@@ -8247,20 +8364,11 @@
     <mergeCell ref="I149:I150"/>
     <mergeCell ref="H126:H129"/>
     <mergeCell ref="I126:I127"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="H74:H80"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="H81:H87"/>
-    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I70:I71"/>
     <mergeCell ref="H29:H34"/>
     <mergeCell ref="H36:H41"/>
@@ -8269,6 +8377,32 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="H88:H94"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="H95:H101"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="H102:H111"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="H135:H138"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="H144:H148"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="H193:H196"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="A168:I168"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="H173:H176"/>
+    <mergeCell ref="H177:H180"/>
+    <mergeCell ref="I177:I178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
